--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikta\Downloads\TDS_P2_New\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BC067E-8921-4731-9381-98081485F823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49DBD213-F6D8-4AE7-B9E4-1D1CB3FAC566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="2340" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2316" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>{     "args": {         "email": "22f2001640@ds.study.iitm.ac.in"     },     "headers": {         "Accept": "*/*",         "Accept-Encoding": "gzip, deflate",         "Host": "httpbin.org",         "User-Agent": "HTTPie/3.2.4",         "X-Amzn-Trace-Id": "Root=1-678005bb-04a1e7e557d8057f2f022b1d"     },     "origin": "106.219.182.32",     "url": "https://httpbin.org/get?email=22f2001640%40ds.study.iitm.ac.in" }</t>
-  </si>
-  <si>
-    <t>hnehz95lpn</t>
   </si>
   <si>
     <t>a1f3e</t>
@@ -677,6 +674,9 @@
 &gt; Regular physical activity is crucial for maintaining good health and well-being.
 ![Weekly Step Count Graph](url_to_image.jpg)
 This analysis provides valuable insights into personal activity levels and how they compare to peers. For more information on the benefits of walking, visit the [CDC website](https://www.cdc.gov/physicalactivity/walking/index.htm).</t>
+  </si>
+  <si>
+    <t>0.afid6pz8</t>
   </si>
 </sst>
 </file>
@@ -1041,30 +1041,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1086,18 +1086,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1127,10 +1127,10 @@
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1149,21 +1149,21 @@
         <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1171,10 +1171,10 @@
         <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1182,10 +1182,10 @@
         <v>64</v>
       </c>
       <c r="C12" s="1">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>39332</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1204,10 +1204,10 @@
         <v>66</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1215,10 +1215,10 @@
         <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>91718</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1237,10 +1237,10 @@
         <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1259,10 +1259,10 @@
         <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1270,10 +1270,10 @@
         <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1281,10 +1281,10 @@
         <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1292,10 +1292,10 @@
         <v>74</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1303,10 +1303,10 @@
         <v>75</v>
       </c>
       <c r="C23" s="1">
-        <v>22557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>6378</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1325,10 +1325,10 @@
         <v>77</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -1336,10 +1336,10 @@
         <v>97</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -1347,10 +1347,10 @@
         <v>78</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -1358,10 +1358,10 @@
         <v>79</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -1369,10 +1369,10 @@
         <v>80</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -1380,10 +1380,10 @@
         <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -1402,10 +1402,10 @@
         <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -1413,10 +1413,10 @@
         <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -1424,10 +1424,10 @@
         <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -1435,10 +1435,10 @@
         <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -1446,10 +1446,10 @@
         <v>87</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
@@ -1457,10 +1457,10 @@
         <v>88</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
@@ -1468,10 +1468,10 @@
         <v>89</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
@@ -1490,10 +1490,10 @@
         <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -1501,10 +1501,10 @@
         <v>92</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -1512,10 +1512,10 @@
         <v>93</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>10.1399458</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
@@ -1534,10 +1534,10 @@
         <v>95</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
@@ -1545,10 +1545,10 @@
         <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
@@ -1556,43 +1556,43 @@
         <v>98</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" s="1">
         <v>29658</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C49" s="1">
         <v>0.47518649486533598</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
@@ -1625,18 +1625,18 @@
         <v>10930</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" s="1">
         <v>10829</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>52</v>
       </c>
@@ -1647,18 +1647,18 @@
         <v>53117</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="1">
         <v>27925</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>54</v>
       </c>
@@ -1666,10 +1666,10 @@
         <v>104</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -1677,10 +1677,10 @@
         <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>105</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
